--- a/hacking_challenge_2023/spiegazioni e soluzione/con spiegazioni.xlsx
+++ b/hacking_challenge_2023/spiegazioni e soluzione/con spiegazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldamo\raccolta mista\hackersgen2023\hacking_challenge_2023\spiegazioni e soluzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A19763-2DD2-411E-92AC-4B095249ED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29A0BB-85DC-4718-B9DE-DEA1855C0620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="5" xr2:uid="{5EAE0600-13BA-4B56-92F0-29D51324A431}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{5EAE0600-13BA-4B56-92F0-29D51324A431}"/>
   </bookViews>
   <sheets>
     <sheet name="esempi" sheetId="1" r:id="rId1"/>
@@ -1819,7 +1819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1938,6 +1938,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1947,42 +1964,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2540,7 +2527,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2595,10 +2582,10 @@
         <v>163</v>
       </c>
       <c r="G9" s="47"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
@@ -2715,7 +2702,7 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="65" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2727,7 +2714,7 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="65"/>
       <c r="G19" t="s">
         <v>23</v>
       </c>
@@ -2819,10 +2806,10 @@
       <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J25" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="58"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2841,11 +2828,11 @@
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2864,12 +2851,12 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="66"/>
       <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2891,8 +2878,8 @@
       <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2917,8 +2904,8 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2937,11 +2924,11 @@
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2960,12 +2947,12 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="66"/>
       <c r="G31" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2987,8 +2974,8 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -3013,8 +3000,8 @@
       <c r="G33" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3105,8 +3092,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3150,13 +3137,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="29" t="b" cm="1">
+      <c r="I3" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="29" t="b" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="J3" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3170,13 +3157,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="44" t="b" cm="1">
+      <c r="I4" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="29" t="b" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3190,13 +3177,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="44" t="b" cm="1">
+      <c r="I5" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="29" t="b" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3206,13 +3193,13 @@
       <c r="B6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="44" t="b" cm="1">
+      <c r="I6" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="29" t="b" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3222,23 +3209,23 @@
       <c r="B7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="29" t="b" cm="1">
+      <c r="I7" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="29" t="b" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="29" t="b" cm="1">
+      <c r="I8" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="b" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3660,12 +3647,12 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G74" s="60" t="s">
+      <c r="G74" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="60" t="s">
+      <c r="G75" t="s">
         <v>478</v>
       </c>
     </row>
@@ -3684,8 +3671,8 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:Q235"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3697,10 +3684,10 @@
       <c r="A1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3718,8 +3705,8 @@
       <c r="F2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3737,8 +3724,8 @@
       <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3750,19 +3737,19 @@
       <c r="E4" s="7">
         <v>60</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3865,34 +3852,34 @@
       <c r="A22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="69" t="s">
         <v>485</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="69"/>
       <c r="F22" s="7" t="str">
         <f>_xlfn.CONCAT(F17:F20)</f>
         <v>51ffb2b2c0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
@@ -4254,10 +4241,10 @@
       <c r="H54" s="7">
         <v>2</v>
       </c>
-      <c r="J54" s="61" t="s">
+      <c r="J54" s="69" t="s">
         <v>486</v>
       </c>
-      <c r="K54" s="61"/>
+      <c r="K54" s="69"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
@@ -4275,8 +4262,8 @@
       <c r="H55" s="7">
         <v>5</v>
       </c>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E56" s="7" t="s">
@@ -4288,23 +4275,23 @@
       <c r="H56" s="7">
         <v>6</v>
       </c>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H57" s="7">
         <v>7</v>
       </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT(F52:F56)</f>
         <v>50ff7500009060</v>
       </c>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
     </row>
     <row r="60" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
@@ -4853,12 +4840,12 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="62" t="s">
+      <c r="A104" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="62"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
@@ -4956,10 +4943,10 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="13.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="63" t="s">
+      <c r="B112" s="68" t="s">
         <v>488</v>
       </c>
-      <c r="C112" s="63"/>
+      <c r="C112" s="68"/>
       <c r="E112" s="7" t="s">
         <v>175</v>
       </c>
@@ -4974,8 +4961,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
       <c r="E113" s="7" t="s">
         <v>177</v>
       </c>
@@ -6141,10 +6128,10 @@
       <c r="A197" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B197" s="61" t="s">
+      <c r="B197" s="69" t="s">
         <v>490</v>
       </c>
-      <c r="C197" s="61"/>
+      <c r="C197" s="69"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
         <v>175</v>
@@ -6165,8 +6152,8 @@
       <c r="A198" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B198" s="61"/>
-      <c r="C198" s="61"/>
+      <c r="B198" s="69"/>
+      <c r="C198" s="69"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
         <v>173</v>
@@ -6187,8 +6174,8 @@
       <c r="A199" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B199" s="61"/>
-      <c r="C199" s="61"/>
+      <c r="B199" s="69"/>
+      <c r="C199" s="69"/>
       <c r="D199" s="7"/>
       <c r="E199" s="48" t="s">
         <v>179</v>
@@ -6454,7 +6441,7 @@
       <c r="E212" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F212" s="66" t="str">
+      <c r="F212" s="59" t="str">
         <f xml:space="preserve"> IF(E212="JL", "74", IF(E212="JE","72", IF(E212="JG","78", "--"))) &amp; "00" &amp; IF($H$216="","xx",$H$216)</f>
         <v>740032</v>
       </c>
@@ -6472,7 +6459,7 @@
       <c r="J212" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K212" s="64" t="s">
+      <c r="K212" s="57" t="s">
         <v>361</v>
       </c>
       <c r="L212" s="7">
@@ -6489,7 +6476,7 @@
       <c r="E213" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="F213" s="66" t="str">
+      <c r="F213" s="59" t="str">
         <f xml:space="preserve"> IF(E213="JL", "74", IF(E213="JE","72", IF(E213="JG","78", "--"))) &amp; "00" &amp; IF($H$216="","xx",$H$216)</f>
         <v>720032</v>
       </c>
@@ -6507,7 +6494,7 @@
       <c r="J213" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K213" s="64" t="str">
+      <c r="K213" s="57" t="str">
         <f xml:space="preserve"> IF(J213="JL", "74", IF(J213="JE","72", IF(J213="JG","78", "--"))) &amp; "00" &amp; IF(M215="","xx",M215)</f>
         <v>78002F</v>
       </c>
@@ -6526,7 +6513,7 @@
       <c r="E214" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F214" s="66" t="str">
+      <c r="F214" s="59" t="str">
         <f xml:space="preserve"> IF(E214="JL", "74", IF(E214="JE","72", IF(E214="JG","78", "--"))) &amp; "00" &amp; IF($H$216="","xx",$H$216)</f>
         <v>780032</v>
       </c>
@@ -6541,7 +6528,7 @@
       <c r="J214" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="K214" s="64">
+      <c r="K214" s="57">
         <v>90</v>
       </c>
       <c r="L214" s="7" t="str">
@@ -6557,7 +6544,7 @@
       <c r="E215" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F215" s="66">
+      <c r="F215" s="59">
         <v>90</v>
       </c>
       <c r="G215" s="7" t="str">
@@ -6571,7 +6558,7 @@
       <c r="J215" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K215" s="64">
+      <c r="K215" s="57">
         <v>91</v>
       </c>
       <c r="L215" s="7" t="str">
@@ -6586,7 +6573,7 @@
       <c r="E216" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F216" s="66">
+      <c r="F216" s="59">
         <v>91</v>
       </c>
       <c r="G216" s="7" t="str">
@@ -6598,37 +6585,37 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B218" s="65" t="str">
+      <c r="B218" s="58" t="str">
         <f>_xlfn.CONCAT(F195:F211,K212:K215)</f>
         <v>50aa700074000E72000E78000E9070ff72001A78001A74001A9070aa78002674002672002690a0ff74002F78002F9091</v>
       </c>
-      <c r="C218" s="65"/>
-      <c r="D218" s="65"/>
-      <c r="E218" s="64"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
-      <c r="H218" s="64"/>
-      <c r="I218" s="65"/>
-      <c r="J218" s="65"/>
-      <c r="K218" s="65"/>
-      <c r="L218" s="65"/>
+      <c r="C218" s="58"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="57"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="57"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="58"/>
+      <c r="J218" s="58"/>
+      <c r="K218" s="58"/>
+      <c r="L218" s="58"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="67" t="str">
+      <c r="A219" s="60" t="str">
         <f>_xlfn.CONCAT(F195:F216)</f>
         <v>50aa700074000E72000E78000E9070ff72001A78001A74001A9070aa78002674002672002690a0ff7400327200327800329091</v>
       </c>
-      <c r="B219" s="67"/>
-      <c r="C219" s="67"/>
-      <c r="D219" s="67"/>
-      <c r="E219" s="66"/>
-      <c r="F219" s="66"/>
-      <c r="G219" s="66"/>
-      <c r="H219" s="66"/>
-      <c r="I219" s="67"/>
-      <c r="J219" s="67"/>
-      <c r="K219" s="67"/>
-      <c r="L219" s="67"/>
+      <c r="B219" s="60"/>
+      <c r="C219" s="60"/>
+      <c r="D219" s="60"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="60"/>
+      <c r="J219" s="60"/>
+      <c r="K219" s="60"/>
+      <c r="L219" s="60"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="36" t="s">
@@ -6799,10 +6786,10 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6814,8 +6801,8 @@
       <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6832,27 +6819,27 @@
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="68" t="s">
         <v>492</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -6879,1391 +6866,992 @@
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68" t="s">
+      <c r="F11" s="61"/>
+      <c r="G11" s="6"/>
+      <c r="I11" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68" t="s">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68" t="s">
+      <c r="I12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68" t="s">
+      <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="8">
         <v>5110</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68" t="s">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
+      <c r="F15" s="8"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68" t="s">
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="72" t="str">
+      <c r="H16" s="1" t="str">
         <f>DEC2HEX(G16)</f>
         <v>4</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="8">
         <v>60</v>
       </c>
-      <c r="G17" s="72" t="str">
+      <c r="G17" s="1" t="str">
         <f xml:space="preserve"> "0" &amp; G16+LEN(F16)/2</f>
         <v>05</v>
       </c>
-      <c r="H17" s="72" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" ref="H17:H33" si="0">DEC2HEX(G17)</f>
         <v>5</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="72" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" ref="G18:G20" si="1" xml:space="preserve"> "0" &amp; G17+LEN(F17)/2</f>
         <v>06</v>
       </c>
-      <c r="H18" s="72" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68" t="s">
+      <c r="E19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="72" t="str">
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-      <c r="H19" s="72" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68" t="s">
+      <c r="E20" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="72" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>08</v>
       </c>
-      <c r="H20" s="72" t="str">
+      <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I20" s="68" t="s">
+      <c r="I20" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68" t="s">
+      <c r="K20" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="68"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68" t="s">
+      <c r="E21" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="72" t="str">
+      <c r="G21" s="1" t="str">
         <f xml:space="preserve"> "" &amp; G20+LEN(F20)/2</f>
         <v>10</v>
       </c>
-      <c r="H21" s="72" t="str">
+      <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="8">
         <v>7100</v>
       </c>
-      <c r="G22" s="72" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" ref="G22:G33" si="2" xml:space="preserve"> "" &amp; G21+LEN(F21)/2</f>
         <v>11</v>
       </c>
-      <c r="H22" s="72" t="str">
+      <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="8">
         <v>780018</v>
       </c>
-      <c r="G23" s="72" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H23" s="72" t="str">
+      <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="68" t="s">
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68" t="s">
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="72" t="str">
+      <c r="G25" s="1" t="str">
         <f xml:space="preserve"> "" &amp; G23+LEN(F23)/2</f>
         <v>16</v>
       </c>
-      <c r="H25" s="72" t="str">
+      <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68" t="s">
+      <c r="E26" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="72" t="str">
+      <c r="G26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H26" s="72" t="str">
+      <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68" t="s">
+      <c r="E27" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="72" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H27" s="72" t="str">
+      <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="I27" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68" t="s">
+      <c r="K27" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="68"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68" t="s">
+      <c r="E28" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="72" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H28" s="72" t="str">
+      <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="68" t="s">
+      <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68" t="s">
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="68" t="s">
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68" t="s">
+      <c r="E30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="73">
+      <c r="F30" s="7">
         <v>740019</v>
       </c>
-      <c r="G30" s="72" t="str">
+      <c r="G30" s="1" t="str">
         <f xml:space="preserve"> "" &amp; G28+LEN(F28)/2</f>
         <v>21</v>
       </c>
-      <c r="H30" s="72" t="str">
+      <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68" t="s">
+      <c r="E31" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="72" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H31" s="72" t="str">
+      <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68" t="s">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68" t="s">
+      <c r="E32" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="7">
         <v>740004</v>
       </c>
-      <c r="G32" s="72" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H32" s="72" t="str">
+      <c r="H32" s="1" t="str">
         <f>DEC2HEX(G32)</f>
         <v>19</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="72" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H33" s="72" t="str">
+      <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="73" t="str">
+      <c r="D35" s="7" t="str">
         <f>_xlfn.CONCAT(F12:F32)</f>
         <v>b25110b2c060b3b1a201b07100780018b2b1a201b0740019b2740004</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="74" t="s">
+      <c r="E40" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68" t="s">
+      <c r="E41" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68" t="s">
+      <c r="E42" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="71" t="s">
+      <c r="F42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68" t="s">
+      <c r="E43" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68" t="s">
+      <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68" t="s">
+      <c r="E44" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="72" t="s">
+      <c r="G44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
+      <c r="F45" s="8"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68" t="s">
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="72" t="s">
+      <c r="G46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="72" t="str">
+      <c r="H46" s="1" t="str">
         <f>DEC2HEX(G46)</f>
         <v>6</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68" t="s">
+      <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="8">
         <v>60</v>
       </c>
-      <c r="G47" s="72" t="str">
+      <c r="G47" s="1" t="str">
         <f xml:space="preserve"> "0" &amp; G46+LEN(F46)/2</f>
         <v>07</v>
       </c>
-      <c r="H47" s="72" t="str">
+      <c r="H47" s="1" t="str">
         <f t="shared" ref="H47:H66" si="3">DEC2HEX(G47)</f>
         <v>7</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68" t="s">
+      <c r="E48" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="72" t="str">
+      <c r="G48" s="1" t="str">
         <f t="shared" ref="G48:G50" si="4" xml:space="preserve"> "0" &amp; G47+LEN(F47)/2</f>
         <v>08</v>
       </c>
-      <c r="H48" s="72" t="str">
+      <c r="H48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68" t="s">
+      <c r="E49" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="72" t="str">
+      <c r="G49" s="1" t="str">
         <f t="shared" si="4"/>
         <v>09</v>
       </c>
-      <c r="H49" s="72" t="str">
+      <c r="H49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68" t="s">
+      <c r="E50" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="72" t="str">
+      <c r="G50" s="1" t="str">
         <f t="shared" si="4"/>
         <v>010</v>
       </c>
-      <c r="H50" s="72" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="C51" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" t="s">
         <v>148</v>
       </c>
-      <c r="E51" s="68" t="s">
+      <c r="E51" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="72" t="str">
+      <c r="G51" s="1" t="str">
         <f xml:space="preserve"> "" &amp; G50+LEN(F50)/2</f>
         <v>12</v>
       </c>
-      <c r="H51" s="72" t="str">
+      <c r="H51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68" t="s">
+      <c r="C52" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="68" t="s">
+      <c r="E52" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="72" t="str">
+      <c r="G52" s="1" t="str">
         <f t="shared" ref="G52:G66" si="5" xml:space="preserve"> "" &amp; G51+LEN(F51)/2</f>
         <v>14</v>
       </c>
-      <c r="H52" s="72" t="str">
+      <c r="H52" s="1" t="str">
         <f t="shared" si="3"/>
         <v>E</v>
       </c>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="68" t="s">
+      <c r="B53" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68" t="s">
+      <c r="E53" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="8">
         <v>40</v>
       </c>
-      <c r="G53" s="72" t="str">
+      <c r="G53" s="1" t="str">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="H53" s="72" t="str">
+      <c r="H53" s="1" t="str">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="68" t="s">
+      <c r="B54" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68" t="s">
+      <c r="E54" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="71" t="s">
+      <c r="F54" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G54" s="72" t="str">
+      <c r="G54" s="1" t="str">
         <f xml:space="preserve"> "" &amp; G53+LEN(F53)/2</f>
         <v>18</v>
       </c>
-      <c r="H54" s="72" t="str">
+      <c r="H54" s="1" t="str">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="68" t="s">
+      <c r="B55" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68" t="s">
+      <c r="E55" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G55" s="72" t="str">
+      <c r="G55" s="1" t="str">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="H55" s="72" t="str">
+      <c r="H55" s="1" t="str">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
       <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="68" t="s">
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68" t="s">
+      <c r="E56" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="72" t="str">
+      <c r="G56" s="1" t="str">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H56" s="72" t="str">
+      <c r="H56" s="1" t="str">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="68" t="s">
+      <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68" t="s">
+      <c r="E57" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="71" t="s">
+      <c r="F57" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="72" t="str">
+      <c r="G57" s="1" t="str">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H57" s="72" t="str">
+      <c r="H57" s="1" t="str">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="68" t="s">
+      <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68" t="s">
+      <c r="E58" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="71" t="s">
+      <c r="F58" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="72" t="str">
+      <c r="G58" s="1" t="str">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="H58" s="72" t="str">
+      <c r="H58" s="1" t="str">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68" t="s">
+      <c r="E59" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="72" t="str">
+      <c r="G59" s="1" t="str">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="H59" s="72" t="str">
+      <c r="H59" s="1" t="str">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68" t="s">
+      <c r="E60" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="72" t="str">
+      <c r="G60" s="1" t="str">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="H60" s="72" t="str">
+      <c r="H60" s="1" t="str">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="68" t="s">
+      <c r="B61" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68" t="s">
+      <c r="E61" t="s">
         <v>145</v>
       </c>
-      <c r="F61" s="73">
+      <c r="F61" s="7">
         <v>740006</v>
       </c>
-      <c r="G61" s="72" t="str">
+      <c r="G61" s="1" t="str">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="H61" s="72" t="str">
+      <c r="H61" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68" t="s">
+      <c r="E62" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="8">
         <v>40</v>
       </c>
-      <c r="G62" s="72" t="str">
+      <c r="G62" s="1" t="str">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="H62" s="72" t="str">
+      <c r="H62" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1D</v>
       </c>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68" t="s">
+      <c r="E63" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="72" t="str">
+      <c r="G63" s="1" t="str">
         <f xml:space="preserve"> "" &amp; G62+LEN(F62)/2</f>
         <v>30</v>
       </c>
-      <c r="H63" s="72" t="str">
+      <c r="H63" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1E</v>
       </c>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68" t="s">
+      <c r="E64" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="71" t="s">
+      <c r="F64" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="72" t="str">
+      <c r="G64" s="1" t="str">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="H64" s="72" t="str">
+      <c r="H64" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1F</v>
       </c>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68" t="s">
+      <c r="E65" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="73">
+      <c r="F65" s="7">
         <v>740006</v>
       </c>
-      <c r="G65" s="72" t="str">
+      <c r="G65" s="1" t="str">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="H65" s="72" t="str">
+      <c r="H65" s="1" t="str">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="72" t="str">
+      <c r="G66" s="1" t="str">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="H66" s="72" t="str">
+      <c r="H66" s="1" t="str">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -9427,26 +9015,26 @@
         <v>c060b1b3a00178000F40b2b074000040b0b2b1b3a001700f720020b0b274000091</v>
       </c>
       <c r="G132" s="7"/>
-      <c r="I132" s="76" t="s">
+      <c r="I132" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="J132" s="76"/>
-      <c r="K132" s="76"/>
+      <c r="J132" s="64"/>
+      <c r="K132" s="64"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>378</v>
       </c>
       <c r="G133" s="7"/>
-      <c r="J133" s="76" t="s">
+      <c r="J133" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="K133" s="76"/>
-      <c r="L133" s="76"/>
-      <c r="M133" s="76"/>
-      <c r="N133" s="76"/>
-      <c r="O133" s="76"/>
-      <c r="P133" s="76"/>
+      <c r="K133" s="64"/>
+      <c r="L133" s="64"/>
+      <c r="M133" s="64"/>
+      <c r="N133" s="64"/>
+      <c r="O133" s="64"/>
+      <c r="P133" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9470,8 +9058,8 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9597,10 +9185,10 @@
       <c r="B16" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -9615,8 +9203,8 @@
       <c r="G17" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -9659,17 +9247,17 @@
       <c r="A23" t="s">
         <v>400</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>401</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9686,13 +9274,13 @@
       <c r="F29" t="s">
         <v>417</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
@@ -9704,13 +9292,13 @@
       <c r="F30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J30" s="76" t="s">
+      <c r="J30" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
@@ -9788,11 +9376,11 @@
         <v>2</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="63" t="s">
+      <c r="K34" s="68" t="s">
         <v>500</v>
       </c>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -9816,9 +9404,9 @@
         <v>3</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -9839,9 +9427,9 @@
         <v>4</v>
       </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -10802,8 +10390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A283420-D31F-45A8-965A-D306E6F72B37}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/hacking_challenge_2023/spiegazioni e soluzione/con spiegazioni.xlsx
+++ b/hacking_challenge_2023/spiegazioni e soluzione/con spiegazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldamo\raccolta mista\hackersgen2023\hacking_challenge_2023\spiegazioni e soluzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29A0BB-85DC-4718-B9DE-DEA1855C0620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAA3385-8E9C-4FC8-BC59-ACD5A04A07D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{5EAE0600-13BA-4B56-92F0-29D51324A431}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="5" xr2:uid="{5EAE0600-13BA-4B56-92F0-29D51324A431}"/>
   </bookViews>
   <sheets>
     <sheet name="esempi" sheetId="1" r:id="rId1"/>
@@ -1976,6 +1976,26 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFF5F5F5"/>
@@ -2142,26 +2162,6 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3671,7 +3671,7 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:Q235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -9042,10 +9042,10 @@
     <mergeCell ref="F8:M9"/>
   </mergeCells>
   <conditionalFormatting sqref="A63:A65">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B88">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9058,8 +9058,8 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -10357,27 +10357,27 @@
     <mergeCell ref="K34:M36"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10390,8 +10390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A283420-D31F-45A8-965A-D306E6F72B37}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -11485,17 +11485,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(MOD(ROW(),2)=0,GetBackgroundColor(INDIRECT(ADDRESS(ROW(),COLUMN())))=16777215)</formula>
     </cfRule>
   </conditionalFormatting>
